--- a/Projeto/Requisitos/Diagrama de Elicitação de Requisitos.xlsx
+++ b/Projeto/Requisitos/Diagrama de Elicitação de Requisitos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>Código</t>
   </si>
@@ -30,12 +30,6 @@
     <t>Requisitos Funcionais</t>
   </si>
   <si>
-    <t>Regras de Negócio</t>
-  </si>
-  <si>
-    <t>Requisitos de Sistema</t>
-  </si>
-  <si>
     <t>Documento de Elicitação de Requisitos - DER</t>
   </si>
   <si>
@@ -75,33 +69,6 @@
     <t>ReqFun3</t>
   </si>
   <si>
-    <t>RegN</t>
-  </si>
-  <si>
-    <t>RegN1</t>
-  </si>
-  <si>
-    <t>RegN2</t>
-  </si>
-  <si>
-    <t>RegN4</t>
-  </si>
-  <si>
-    <t>RegN3</t>
-  </si>
-  <si>
-    <t>RegN5</t>
-  </si>
-  <si>
-    <t>RegN7</t>
-  </si>
-  <si>
-    <t>RegN6</t>
-  </si>
-  <si>
-    <t>RegN8</t>
-  </si>
-  <si>
     <t>ReqFun4</t>
   </si>
   <si>
@@ -117,9 +84,6 @@
     <t>ReqFun8</t>
   </si>
   <si>
-    <t>ReqSis</t>
-  </si>
-  <si>
     <t>O administrador deve enviar a solicitação do cliente a um prestador de serviços.</t>
   </si>
   <si>
@@ -141,9 +105,6 @@
     <t>Requisitos Não Funcionais</t>
   </si>
   <si>
-    <t>ReqNF</t>
-  </si>
-  <si>
     <t>O Administrador da prefeitura deve avaliar o status passado pelo servidor</t>
   </si>
   <si>
@@ -162,12 +123,102 @@
     <t>O Prestador de Serviços não deverá ultrapassar o prazo limite da solicitação.</t>
   </si>
   <si>
-    <t>~~</t>
-  </si>
-  <si>
     <t>Projeto: Trabalho 2
-Atualizado:17/10/2016
+Atualizado:20/10/2016
 Autor:Dhiogo Neres Carreira</t>
+  </si>
+  <si>
+    <t>ReqFun9</t>
+  </si>
+  <si>
+    <t>ReqFun10</t>
+  </si>
+  <si>
+    <t>ReqNF1</t>
+  </si>
+  <si>
+    <t>ReqNF2</t>
+  </si>
+  <si>
+    <t>ReqNF3</t>
+  </si>
+  <si>
+    <t>ReqNF4</t>
+  </si>
+  <si>
+    <t>ReqNF5</t>
+  </si>
+  <si>
+    <t>ReqNF6</t>
+  </si>
+  <si>
+    <t>ReqNF7</t>
+  </si>
+  <si>
+    <t>ReqNF8</t>
+  </si>
+  <si>
+    <t>ReqNF9</t>
+  </si>
+  <si>
+    <t>ReqNF10</t>
+  </si>
+  <si>
+    <t>ReqNF11</t>
+  </si>
+  <si>
+    <t>ReqNF12</t>
+  </si>
+  <si>
+    <t>ReqFun11</t>
+  </si>
+  <si>
+    <t>ReqFun12</t>
+  </si>
+  <si>
+    <t>ReqFun13</t>
+  </si>
+  <si>
+    <t>ReqFun14</t>
+  </si>
+  <si>
+    <t>ReqFun15</t>
+  </si>
+  <si>
+    <t>ReqFun16</t>
+  </si>
+  <si>
+    <t>ReqFun17</t>
+  </si>
+  <si>
+    <t>O Administrador da prefeitura deve avaliar a solicitação antes de repassá-la</t>
+  </si>
+  <si>
+    <t>O Administrador da prefeitura deve ser capaz de descartar uma solicitação.</t>
+  </si>
+  <si>
+    <t>Aplica-se a solicitações duplicadas, trotes e erros.</t>
+  </si>
+  <si>
+    <t>Talvez?</t>
+  </si>
+  <si>
+    <t>ReqProv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O Administrador da prefeitura deve ser capaz de visualizar solicitações recebidas</t>
+  </si>
+  <si>
+    <t>O Administrador da prefeitura deve ser capaz de reenviar uma solicitação a um Prestador de Serviços.</t>
+  </si>
+  <si>
+    <t>Aplica-se a casos de inconformidade na execução.</t>
+  </si>
+  <si>
+    <t>O prestador de serviços deve receber uma notificação de solicitação.</t>
   </si>
 </sst>
 </file>
@@ -191,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,8 +261,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -366,33 +423,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -418,39 +455,6 @@
       <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -491,6 +495,30 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -500,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -512,6 +540,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,81 +604,34 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E41"/>
+  <dimension ref="A2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,20 +950,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="12"/>
+      <c r="B3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -953,446 +979,498 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="D8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="B9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="C9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="B11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:5" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="C30" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="1:5" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:5" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" spans="1:5" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="34"/>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="36"/>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="36"/>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="38"/>
-    </row>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="37"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="37"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="37"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="37"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="37"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="36"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A36:E36"/>
+  <mergeCells count="5">
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A26:E26"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A32:E32"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>

--- a/Projeto/Requisitos/Diagrama de Elicitação de Requisitos.xlsx
+++ b/Projeto/Requisitos/Diagrama de Elicitação de Requisitos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
   <si>
     <t>Código</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Requisitos Não Funcionais</t>
-  </si>
-  <si>
-    <t>O Administrador da prefeitura deve avaliar o status passado pelo servidor</t>
   </si>
   <si>
     <t>O Cidadão contará com uma interface de sistema mobile</t>
@@ -219,6 +216,12 @@
   </si>
   <si>
     <t>O prestador de serviços deve receber uma notificação de solicitação.</t>
+  </si>
+  <si>
+    <t>O Administrador deve ser capaz de avaliar a conclusão de uma solicitação.</t>
+  </si>
+  <si>
+    <t>O Administrador da prefeitura deve confirmar o status passado pelo servidor</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -576,6 +579,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,34 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -934,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E48"/>
+  <dimension ref="A2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,31 +953,32 @@
     <col min="3" max="3" width="43.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="27"/>
-    </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="37"/>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,241 +995,244 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="20" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>7</v>
       </c>
@@ -1231,245 +1241,278 @@
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B31" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C31" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="D31" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B32" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C32" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="D32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="16" t="s">
+      <c r="B33" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D33" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
       <c r="E38" s="17"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="16" t="s">
+      <c r="B43" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D43" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="17"/>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="37" t="s">
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C45" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="17"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
+      <c r="D45" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="E45" s="17"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="37"/>
+        <v>60</v>
+      </c>
+      <c r="B46" s="25"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
       <c r="E46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="36"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A29:E29"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B3:C3"/>
